--- a/Ass2 excel - Copy.xlsx
+++ b/Ass2 excel - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosemary\Documents\GitHub\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6601E3B4-ABC4-4F1D-9C15-BCAB67946C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F8911D-58A0-45C7-AD40-645CCA3810F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{DB5B7D4E-22A2-427B-A7B8-C143EC54F11C}"/>
+    <workbookView xWindow="4020" yWindow="690" windowWidth="15375" windowHeight="7875" xr2:uid="{DB5B7D4E-22A2-427B-A7B8-C143EC54F11C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t>=</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>&lt;&lt;print expr&gt;&gt; ::= &lt;&lt;string lit&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;for start&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;for arith&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;else if&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;poss if&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;poss assign&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool expr'&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool expr&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;rel expr&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;arith expr'&gt;&gt; ::= epsilon</t>
+  </si>
+  <si>
+    <t>&lt;&lt;term'&gt;&gt; ::= epsilon</t>
   </si>
 </sst>
 </file>
@@ -793,8 +823,8 @@
   <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL31" sqref="AL31"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +863,7 @@
     <col min="41" max="41" width="46.85546875" customWidth="1"/>
     <col min="42" max="42" width="33.7109375" customWidth="1"/>
     <col min="43" max="43" width="23.28515625" customWidth="1"/>
-    <col min="44" max="44" width="24.85546875" customWidth="1"/>
+    <col min="44" max="44" width="73" customWidth="1"/>
     <col min="45" max="45" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,7 +1008,9 @@
       <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="2"/>
+      <c r="AR2" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1090,7 +1122,9 @@
       <c r="AA7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="AS7" t="s">
         <v>90</v>
       </c>
@@ -1108,7 +1142,9 @@
       <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1134,17 +1170,36 @@
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="AI10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="AS10" t="s">
         <v>94</v>
       </c>
@@ -1162,7 +1217,9 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="AH12" s="2" t="s">
         <v>95</v>
       </c>
@@ -1202,7 +1259,9 @@
         <v>97</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="AS15" t="s">
         <v>98</v>
       </c>
@@ -1271,10 +1330,14 @@
       <c r="J19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AS19" t="s">
         <v>105</v>
       </c>
@@ -1358,10 +1421,18 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>115</v>
       </c>
@@ -1431,6 +1502,33 @@
       <c r="D27" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>141</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
@@ -1458,8 +1556,12 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>125</v>
       </c>
